--- a/data/mercalli.xlsx
+++ b/data/mercalli.xlsx
@@ -14,7 +14,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -224,44 +278,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -275,24 +329,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
